--- a/src/team_data/Mumbai_India/Mumbai_India.xlsx
+++ b/src/team_data/Mumbai_India/Mumbai_India.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IIT\1st Year\2nd Trimester\CM1601 [PRO] Programming Fundamentals\CW\fx\src\team_data\Mumbai_India\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{F425DC00-54D0-4AED-B791-BF08D43C89F4}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{21150B16-B373-405E-AEB1-462AF9511CDB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="12855" windowWidth="21600" xWindow="3375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1065"/>
+    <workbookView windowHeight="7995" windowWidth="15375" xWindow="1170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>PLAYER NAME</t>
   </si>
@@ -73,10 +73,10 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Kuldeep Yadav</t>
-  </si>
-  <si>
     <t>GOTA</t>
+  </si>
+  <si>
+    <t>pakaya</t>
   </si>
 </sst>
 </file>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -572,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -709,10 +709,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>

--- a/src/team_data/Mumbai_India/Mumbai_India.xlsx
+++ b/src/team_data/Mumbai_India/Mumbai_India.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>PLAYER NAME</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>pakaya</t>
+  </si>
+  <si>
+    <t>Kuldeep Yadav</t>
   </si>
 </sst>
 </file>
@@ -709,7 +712,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>0</v>
